--- a/biology/Zoologie/Cassique_à_épaulettes/Cassique_à_épaulettes.xlsx
+++ b/biology/Zoologie/Cassique_à_épaulettes/Cassique_à_épaulettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_%C3%A9paulettes</t>
+          <t>Cassique_à_épaulettes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacicus chrysopterus
 Le Cassique à épaulettes (Cacicus chrysopterus) est une espèce d'oiseau de la famille des ictéridés qu’on retrouve en Amérique du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_%C3%A9paulettes</t>
+          <t>Cassique_à_épaulettes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassique à épaulettes dans le sud du Brésil, en Uruguay, au nord-est de l’Argentine, dans la moitié est du Paraguay.  Une population isolée occupe une bande étroite chevauchant la Bolivie et l’Argentine.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_%C3%A9paulettes</t>
+          <t>Cassique_à_épaulettes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cassique fréquente les forêts et les lisières de divers types.  On le voit dans les forêts humides du Yunga, les forêts plus sèches du Gran Chaco et du Cerrado, les forêts secondaires et les forêts clairsemées le long des cours d’eau et des routes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_%C3%A9paulettes</t>
+          <t>Cassique_à_épaulettes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassique à épaulettes niche en solitaire.  Le nid est un panier suspendu de 0,6 à 1 m de long et généralement situé à moins de 5 m du sol.  Il est souvent tissé à l’aide de l’hyphe d’un marasme.  Les œufs sont au nombre de trois.  Il est parfois parasité par le Vacher luisant.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_%C3%A9paulettes</t>
+          <t>Cassique_à_épaulettes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
